--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -331,12 +331,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
